--- a/iselUssSyncV2/OutputWSLorientation/20220524_1305_D50L474W30Q21.6U0.41H67.1G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1305_D50L474W30Q21.6U0.41H67.1G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.44391493857134118</v>
+        <v>0.2538076525671093</v>
       </c>
       <c r="P2" s="0">
         <v>262.49143333333342</v>
@@ -356,10 +356,10 @@
         <v>2.5750409610000009</v>
       </c>
       <c r="R2" s="0">
-        <v>1.3275639814083808</v>
+        <v>2.3219374092772984</v>
       </c>
       <c r="S2" s="0">
-        <v>0.41052340059383025</v>
+        <v>1.2928617602677364</v>
       </c>
       <c r="T2" s="0">
         <v>0.04239631440046468</v>
@@ -383,16 +383,16 @@
         <v>190000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.9396737159652386</v>
+        <v>1.1090053292183619</v>
       </c>
       <c r="AB2" s="0">
-        <v>6.2725802165605007</v>
+        <v>1.9917372762782777</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.6468453113821084</v>
+        <v>2.3234226556910542</v>
       </c>
       <c r="AD2" s="0">
-        <v>4.0046170099397527</v>
+        <v>2.0023085049698763</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>10.919425527942609</v>
+        <v>4.3151599319693315</v>
       </c>
     </row>
   </sheetData>
